--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
@@ -33,10 +33,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <x:si>
-    <x:t>A</x:t>
+    <x:t>Column1</x:t>
   </x:si>
   <x:si>
-    <x:t>b</x:t>
+    <x:t>Column2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column3</x:t>
   </x:si>
   <x:si>
     <x:t>a</x:t>
@@ -45,13 +48,10 @@
     <x:t>B</x:t>
   </x:si>
   <x:si>
-    <x:t>Column1</x:t>
+    <x:t>A</x:t>
   </x:si>
   <x:si>
-    <x:t>Column2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column3</x:t>
+    <x:t>b</x:t>
   </x:si>
   <x:si>
     <x:t>c</x:t>
@@ -82,8 +82,38 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF90EE90"/>
-        <x:bgColor rgb="FF90EE90"/>
+        <x:fgColor rgb="FFDEB887"/>
+        <x:bgColor rgb="FFDEB887"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFCD5C5C"/>
+        <x:bgColor rgb="FFCD5C5C"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFA9A9A9"/>
+        <x:bgColor rgb="FFA9A9A9"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FF1E90FF"/>
+        <x:bgColor rgb="FF1E90FF"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FF00CED1"/>
+        <x:bgColor rgb="FF00CED1"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFF1493"/>
+        <x:bgColor rgb="FFFF1493"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
@@ -94,38 +124,8 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF1493"/>
-        <x:bgColor rgb="FFFF1493"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF00CED1"/>
-        <x:bgColor rgb="FF00CED1"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF1E90FF"/>
-        <x:bgColor rgb="FF1E90FF"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFA9A9A9"/>
-        <x:bgColor rgb="FFA9A9A9"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFCD5C5C"/>
-        <x:bgColor rgb="FFCD5C5C"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFDEB887"/>
-        <x:bgColor rgb="FFDEB887"/>
+        <x:fgColor rgb="FF90EE90"/>
+        <x:bgColor rgb="FF90EE90"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -176,40 +176,40 @@
     <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="46" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="46" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -250,7 +250,27 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -258,27 +278,15 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="46" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -286,15 +294,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -605,93 +605,93 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C3" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C4" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C6" s="4" t="s"/>
+      <x:c r="A6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s"/>
+      <x:c r="A7" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C7" s="6" t="s"/>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="2" t="s"/>
-      <x:c r="B8" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>0</x:v>
+      <x:c r="A8" s="7" t="s"/>
+      <x:c r="B8" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="7" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
-      <x:c r="A9" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s"/>
-      <x:c r="C9" s="1" t="s">
-        <x:v>0</x:v>
+      <x:c r="A9" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B9" s="8" t="s"/>
+      <x:c r="C9" s="8" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -725,83 +725,83 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B1" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C1" s="3" t="s"/>
+      <x:c r="A1" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="6" t="s"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C2" s="6" t="s">
-        <x:v>2</x:v>
+      <x:c r="A2" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C3" s="7" t="s">
-        <x:v>0</x:v>
+      <x:c r="A3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C4" s="5" t="s">
-        <x:v>1</x:v>
+      <x:c r="A4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C5" s="4" t="s"/>
+      <x:c r="A5" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s"/>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="2" t="s"/>
-      <x:c r="B6" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>0</x:v>
+      <x:c r="A6" s="7" t="s"/>
+      <x:c r="B6" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="7" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B7" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C7" s="8" t="s">
-        <x:v>0</x:v>
+      <x:c r="A7" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s"/>
-      <x:c r="C8" s="1" t="s">
-        <x:v>0</x:v>
+      <x:c r="A8" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="8" t="s"/>
+      <x:c r="C8" s="8" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -835,40 +835,40 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="8" t="s">
-        <x:v>2</x:v>
+      <x:c r="A1" s="1" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="4" t="s">
-        <x:v>0</x:v>
+      <x:c r="A2" s="5" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="1" t="s">
-        <x:v>3</x:v>
+      <x:c r="A3" s="8" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="5" t="s">
-        <x:v>1</x:v>
+      <x:c r="A4" s="4" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="7" t="s">
-        <x:v>3</x:v>
+      <x:c r="A5" s="2" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="3" t="s">
+      <x:c r="A6" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="2" t="s"/>
+      <x:c r="A7" s="7" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="6" t="s"/>
+      <x:c r="A8" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -901,40 +901,40 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="3" t="s">
+      <x:c r="A1" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="1" t="s">
-        <x:v>3</x:v>
+      <x:c r="A2" s="8" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="5" t="s">
-        <x:v>1</x:v>
+      <x:c r="A3" s="4" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="7" t="s">
-        <x:v>3</x:v>
+      <x:c r="A4" s="2" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="8" t="s">
-        <x:v>2</x:v>
+      <x:c r="A5" s="1" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="4" t="s">
-        <x:v>0</x:v>
+      <x:c r="A6" s="5" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="6" t="s"/>
+      <x:c r="A7" s="3" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="2" t="s"/>
+      <x:c r="A8" s="7" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -957,7 +957,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C2"/>
+  <x:dimension ref="A1:C8"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
@@ -967,22 +967,22 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s"/>
+      <x:c r="A1" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B1" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C1" s="8" t="s"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C2" s="4" t="s"/>
+      <x:c r="A2" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="5" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1005,7 +1005,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B8"/>
+  <x:dimension ref="A1:C8"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
@@ -1015,65 +1015,65 @@
     <x:col min="1" max="1" width="9.850625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
-      <x:c r="A1" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
-      <x:c r="A2" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B6" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B7" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="2" t="s"/>
-      <x:c r="B8" s="1" t="s"/>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="7" t="s"/>
+      <x:c r="B8" s="8" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1116,7 +1116,7 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="4" t="n">
+      <x:c r="A3" s="5" t="n">
         <x:v>1.15</x:v>
       </x:c>
     </x:row>
@@ -1131,15 +1131,15 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="5" t="n">
+      <x:c r="A6" s="4" t="n">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="6" t="s"/>
+      <x:c r="A7" s="3" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="2" t="s"/>
+      <x:c r="A8" s="7" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1172,40 +1172,40 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="4" t="n">
+      <x:c r="A1" s="5" t="n">
         <x:v>1.15</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="1" t="n">
+      <x:c r="A2" s="8" t="n">
         <x:v>1.3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="3" t="n">
+      <x:c r="A3" s="6" t="n">
         <x:v>4.15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="7" t="n">
+      <x:c r="A4" s="2" t="n">
         <x:v>4.3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="5" t="n">
+      <x:c r="A5" s="4" t="n">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="8" t="n">
+      <x:c r="A6" s="1" t="n">
         <x:v>1230</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="2" t="s"/>
+      <x:c r="A7" s="7" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="6" t="s"/>
+      <x:c r="A8" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1268,10 +1268,10 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="6" t="s"/>
+      <x:c r="A7" s="3" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="2" t="s"/>
+      <x:c r="A8" s="7" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1334,10 +1334,10 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="2" t="s"/>
+      <x:c r="A7" s="7" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="6" t="s"/>
+      <x:c r="A8" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1370,83 +1370,83 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="2" t="s"/>
-      <x:c r="B1" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
-        <x:v>0</x:v>
+      <x:c r="A1" s="7" t="s"/>
+      <x:c r="B1" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="7" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="8" t="s">
-        <x:v>0</x:v>
+      <x:c r="A2" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C3" s="7" t="s">
-        <x:v>0</x:v>
+      <x:c r="A3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C4" s="6" t="s">
-        <x:v>2</x:v>
+      <x:c r="A4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s">
-        <x:v>1</x:v>
+      <x:c r="A5" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C6" s="4" t="s"/>
+      <x:c r="A6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s"/>
+      <x:c r="A7" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C7" s="6" t="s"/>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s"/>
-      <x:c r="C8" s="1" t="s">
-        <x:v>0</x:v>
+      <x:c r="A8" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="8" t="s"/>
+      <x:c r="C8" s="8" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1480,38 +1480,38 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="2" t="s"/>
+      <x:c r="A1" s="7" t="s"/>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="6" t="s"/>
+      <x:c r="A2" s="3" t="s"/>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="8" t="s">
-        <x:v>2</x:v>
+      <x:c r="A3" s="1" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="4" t="s">
-        <x:v>0</x:v>
+      <x:c r="A4" s="5" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="5" t="s">
-        <x:v>1</x:v>
+      <x:c r="A5" s="4" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="1" t="s">
-        <x:v>3</x:v>
+      <x:c r="A6" s="8" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="7" t="s">
-        <x:v>3</x:v>
+      <x:c r="A7" s="2" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3" t="s">
+      <x:c r="A8" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -1546,40 +1546,40 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="3" t="s">
+      <x:c r="A1" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="1" t="s">
-        <x:v>3</x:v>
+      <x:c r="A2" s="8" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="7" t="s">
-        <x:v>3</x:v>
+      <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="5" t="s">
-        <x:v>1</x:v>
+      <x:c r="A4" s="4" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="4" t="s">
-        <x:v>0</x:v>
+      <x:c r="A5" s="5" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="8" t="s">
-        <x:v>2</x:v>
+      <x:c r="A6" s="1" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="2" t="s"/>
+      <x:c r="A7" s="7" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="6" t="s"/>
+      <x:c r="A8" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1612,83 +1612,83 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B1" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="8" t="s">
-        <x:v>0</x:v>
+      <x:c r="A1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C2" s="7" t="s">
-        <x:v>0</x:v>
+      <x:c r="A2" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B3" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C3" s="5" t="s">
-        <x:v>1</x:v>
+      <x:c r="A3" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B3" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="4" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C4" s="6" t="s">
-        <x:v>2</x:v>
+      <x:c r="A4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C5" s="4" t="s"/>
+      <x:c r="A5" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s"/>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s"/>
+      <x:c r="A6" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="6" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s"/>
-      <x:c r="C7" s="1" t="s">
-        <x:v>0</x:v>
+      <x:c r="A7" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="8" t="s"/>
+      <x:c r="C7" s="8" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="2" t="s"/>
-      <x:c r="B8" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>0</x:v>
+      <x:c r="A8" s="7" t="s"/>
+      <x:c r="B8" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="7" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1722,40 +1722,40 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="8" t="s">
-        <x:v>2</x:v>
+      <x:c r="A1" s="1" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="4" t="s">
-        <x:v>0</x:v>
+      <x:c r="A2" s="5" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="5" t="s">
-        <x:v>1</x:v>
+      <x:c r="A3" s="4" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="1" t="s">
-        <x:v>3</x:v>
+      <x:c r="A4" s="8" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="7" t="s">
-        <x:v>3</x:v>
+      <x:c r="A5" s="2" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="3" t="s">
+      <x:c r="A6" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="6" t="s"/>
+      <x:c r="A7" s="3" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="2" t="s"/>
+      <x:c r="A8" s="7" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1788,40 +1788,40 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="3" t="s">
+      <x:c r="A1" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="1" t="s">
-        <x:v>3</x:v>
+      <x:c r="A2" s="8" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="7" t="s">
-        <x:v>3</x:v>
+      <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="5" t="s">
-        <x:v>1</x:v>
+      <x:c r="A4" s="4" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="4" t="s">
-        <x:v>0</x:v>
+      <x:c r="A5" s="5" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="8" t="s">
-        <x:v>2</x:v>
+      <x:c r="A6" s="1" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="2" t="s"/>
+      <x:c r="A7" s="7" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="6" t="s"/>
+      <x:c r="A8" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1854,83 +1854,83 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B1" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C1" s="7" t="s">
-        <x:v>0</x:v>
+      <x:c r="A1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C2" s="6" t="s">
-        <x:v>2</x:v>
+      <x:c r="A2" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B3" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C3" s="5" t="s">
-        <x:v>1</x:v>
+      <x:c r="A3" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B3" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="4" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C4" s="4" t="s"/>
+      <x:c r="A4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C4" s="5" t="s"/>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B5" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C5" s="8" t="s">
-        <x:v>0</x:v>
+      <x:c r="A5" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s"/>
+      <x:c r="A6" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="6" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s"/>
-      <x:c r="C7" s="1" t="s">
-        <x:v>0</x:v>
+      <x:c r="A7" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="8" t="s"/>
+      <x:c r="C7" s="8" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="2" t="s"/>
-      <x:c r="B8" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>0</x:v>
+      <x:c r="A8" s="7" t="s"/>
+      <x:c r="B8" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="7" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1964,83 +1964,83 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B1" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C1" s="3" t="s"/>
+      <x:c r="A1" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="6" t="s"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s"/>
-      <x:c r="C2" s="1" t="s">
-        <x:v>0</x:v>
+      <x:c r="A2" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="8" t="s"/>
+      <x:c r="C2" s="8" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C3" s="8" t="s">
-        <x:v>0</x:v>
+      <x:c r="A3" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C4" s="5" t="s">
-        <x:v>1</x:v>
+      <x:c r="A4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C5" s="6" t="s">
-        <x:v>2</x:v>
+      <x:c r="A5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B6" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C6" s="7" t="s">
-        <x:v>0</x:v>
+      <x:c r="A6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B7" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C7" s="4" t="s"/>
+      <x:c r="A7" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B7" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C7" s="5" t="s"/>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="2" t="s"/>
-      <x:c r="B8" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>0</x:v>
+      <x:c r="A8" s="7" t="s"/>
+      <x:c r="B8" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="7" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
@@ -597,10 +597,9 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="4" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="3" width="9.850625" style="0" customWidth="1"/>
+    <x:col min="1" max="3" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
@@ -719,10 +718,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="6" t="s">
@@ -829,10 +825,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1" t="s">
@@ -895,10 +888,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="6" t="s">
@@ -961,10 +951,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="8" t="s">
@@ -1009,10 +996,9 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="2" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="1" width="9.850625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
@@ -1100,10 +1086,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="9" t="n">
@@ -1166,10 +1149,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="5" t="n">
@@ -1232,10 +1212,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="13" t="n">
@@ -1298,10 +1275,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="17">
@@ -1364,10 +1338,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="7" t="s"/>
@@ -1474,10 +1445,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="7" t="s"/>
@@ -1540,10 +1508,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="6" t="s">
@@ -1606,10 +1571,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
@@ -1716,10 +1678,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1" t="s">
@@ -1782,10 +1741,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="6" t="s">
@@ -1848,10 +1804,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="2" t="s">
@@ -1958,10 +1911,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="6" t="s">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
@@ -148,7 +148,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="21">
+  <x:cellStyleXfs count="42">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -212,8 +212,71 @@
     <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="21">
+  <x:cellXfs count="42">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -296,6 +359,90 @@
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -603,93 +750,93 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="0" t="s">
+      <x:c r="A1" s="21" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="B1" s="21" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="C1" s="21" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
+      <x:c r="A2" s="22" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="22" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="22" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="A3" s="23" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="23" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="23" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s">
+      <x:c r="A4" s="24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="24" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="4" t="s">
+      <x:c r="A5" s="25" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="25" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="25" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s"/>
+      <x:c r="A6" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="26" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="26" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C7" s="6" t="s"/>
+      <x:c r="A7" s="27" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="27" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C7" s="27" t="s"/>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="7" t="s"/>
-      <x:c r="B8" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C8" s="7" t="s">
+      <x:c r="A8" s="28" t="s"/>
+      <x:c r="B8" s="28" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="28" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
-      <x:c r="A9" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B9" s="8" t="s"/>
-      <x:c r="C9" s="8" t="s">
+      <x:c r="A9" s="29" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B9" s="29" t="s"/>
+      <x:c r="C9" s="29" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -721,82 +868,82 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="6" t="s"/>
+      <x:c r="A1" s="27" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B1" s="27" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="27" t="s"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
+      <x:c r="A2" s="24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="24" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="A3" s="23" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="23" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="23" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="4" t="s">
+      <x:c r="A4" s="25" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="25" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="25" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s"/>
+      <x:c r="A5" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="26" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="26" t="s"/>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="7" t="s"/>
-      <x:c r="B6" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="7" t="s">
+      <x:c r="A6" s="28" t="s"/>
+      <x:c r="B6" s="28" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="28" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
+      <x:c r="A7" s="22" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B7" s="22" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="22" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B8" s="8" t="s"/>
-      <x:c r="C8" s="8" t="s">
+      <x:c r="A8" s="29" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="29" t="s"/>
+      <x:c r="C8" s="29" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -828,40 +975,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="22" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="5" t="s">
+      <x:c r="A2" s="26" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="8" t="s">
+      <x:c r="A3" s="29" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="4" t="s">
+      <x:c r="A4" s="25" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="23" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="6" t="s">
+      <x:c r="A6" s="27" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="7" t="s"/>
+      <x:c r="A7" s="28" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3" t="s"/>
+      <x:c r="A8" s="24" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -891,40 +1038,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="6" t="s">
+      <x:c r="A1" s="27" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="8" t="s">
+      <x:c r="A2" s="29" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="4" t="s">
+      <x:c r="A3" s="25" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="A4" s="23" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="1" t="s">
+      <x:c r="A5" s="22" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="5" t="s">
+      <x:c r="A6" s="26" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="3" t="s"/>
+      <x:c r="A7" s="24" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="7" t="s"/>
+      <x:c r="A8" s="28" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -954,22 +1101,22 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B1" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C1" s="8" t="s"/>
+      <x:c r="A1" s="29" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B1" s="29" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C1" s="29" t="s"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="5" t="s"/>
+      <x:c r="A2" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="26" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="26" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1001,65 +1148,65 @@
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
-      <x:c r="A1" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B5" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="A6" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B6" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
-      <x:c r="A7" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8" s="7" t="s"/>
-      <x:c r="B8" s="8" t="s"/>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="25" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B1" s="27" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="26" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="22" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="23" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="23" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="28" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="29" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="25" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="27" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="22" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="28" t="s"/>
+      <x:c r="B8" s="29" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1089,40 +1236,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="9" t="n">
+      <x:c r="A1" s="30" t="n">
         <x:v>0.378125</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="10" t="n">
+      <x:c r="A2" s="31" t="n">
         <x:v>1.05034722222222</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="5" t="n">
+      <x:c r="A3" s="26" t="n">
         <x:v>1.15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="11">
+      <x:c r="A4" s="32">
         <x:v>40573</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="12">
+      <x:c r="A5" s="33">
         <x:v>40648</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="4" t="n">
+      <x:c r="A6" s="25" t="n">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="3" t="s"/>
+      <x:c r="A7" s="24" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="7" t="s"/>
+      <x:c r="A8" s="28" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1152,40 +1299,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="5" t="n">
+      <x:c r="A1" s="26" t="n">
         <x:v>1.15</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="8" t="n">
+      <x:c r="A2" s="29" t="n">
         <x:v>1.3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="6" t="n">
+      <x:c r="A3" s="27" t="n">
         <x:v>4.15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="2" t="n">
+      <x:c r="A4" s="23" t="n">
         <x:v>4.3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="4" t="n">
+      <x:c r="A5" s="25" t="n">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="1" t="n">
+      <x:c r="A6" s="22" t="n">
         <x:v>1230</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="7" t="s"/>
+      <x:c r="A7" s="28" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3" t="s"/>
+      <x:c r="A8" s="24" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1215,40 +1362,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="13" t="n">
+      <x:c r="A1" s="34" t="n">
         <x:v>0.00850694444444444</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="14" t="n">
+      <x:c r="A2" s="35" t="n">
         <x:v>0.0446180555555556</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="9" t="n">
+      <x:c r="A3" s="30" t="n">
         <x:v>0.0447916666666667</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="15" t="n">
+      <x:c r="A4" s="36" t="n">
         <x:v>0.524548611111111</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="10" t="n">
+      <x:c r="A5" s="31" t="n">
         <x:v>1.05034722222222</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="16" t="n">
+      <x:c r="A6" s="37" t="n">
         <x:v>1.87586805555556</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="3" t="s"/>
+      <x:c r="A7" s="24" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="7" t="s"/>
+      <x:c r="A8" s="28" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1278,40 +1425,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="17">
+      <x:c r="A1" s="38">
         <x:v>40558</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="11">
+      <x:c r="A2" s="32">
         <x:v>40573</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="12">
+      <x:c r="A3" s="33">
         <x:v>40648</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="18">
+      <x:c r="A4" s="39">
         <x:v>40663</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="19">
+      <x:c r="A5" s="40">
         <x:v>40892</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="20">
+      <x:c r="A6" s="41">
         <x:v>40907</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="7" t="s"/>
+      <x:c r="A7" s="28" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3" t="s"/>
+      <x:c r="A8" s="24" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1341,82 +1488,82 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="7" t="s"/>
-      <x:c r="B1" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="7" t="s">
+      <x:c r="A1" s="28" t="s"/>
+      <x:c r="B1" s="28" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="28" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
+      <x:c r="A2" s="22" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="22" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="22" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="A3" s="23" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="23" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="23" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s">
+      <x:c r="A4" s="24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="24" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="4" t="s">
+      <x:c r="A5" s="25" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="25" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="25" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s"/>
+      <x:c r="A6" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="26" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="26" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C7" s="6" t="s"/>
+      <x:c r="A7" s="27" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="27" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C7" s="27" t="s"/>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B8" s="8" t="s"/>
-      <x:c r="C8" s="8" t="s">
+      <x:c r="A8" s="29" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="29" t="s"/>
+      <x:c r="C8" s="29" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1448,38 +1595,38 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="7" t="s"/>
+      <x:c r="A1" s="28" t="s"/>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="3" t="s"/>
+      <x:c r="A2" s="24" t="s"/>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="1" t="s">
+      <x:c r="A3" s="22" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="5" t="s">
+      <x:c r="A4" s="26" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="4" t="s">
+      <x:c r="A5" s="25" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="8" t="s">
+      <x:c r="A6" s="29" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="A7" s="23" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="6" t="s">
+      <x:c r="A8" s="27" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -1511,40 +1658,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="6" t="s">
+      <x:c r="A1" s="27" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="8" t="s">
+      <x:c r="A2" s="29" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="23" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="4" t="s">
+      <x:c r="A4" s="25" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="5" t="s">
+      <x:c r="A5" s="26" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="1" t="s">
+      <x:c r="A6" s="22" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="7" t="s"/>
+      <x:c r="A7" s="28" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3" t="s"/>
+      <x:c r="A8" s="24" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1574,82 +1721,82 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="A1" s="22" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="22" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C1" s="22" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
+      <x:c r="A2" s="23" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="23" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="23" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="4" t="s">
+      <x:c r="A3" s="25" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B3" s="25" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="25" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s">
+      <x:c r="A4" s="24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="24" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s"/>
+      <x:c r="A5" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="26" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="26" t="s"/>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B6" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="6" t="s"/>
+      <x:c r="A6" s="27" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="27" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="27" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="8" t="s"/>
-      <x:c r="C7" s="8" t="s">
+      <x:c r="A7" s="29" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="29" t="s"/>
+      <x:c r="C7" s="29" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="7" t="s"/>
-      <x:c r="B8" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C8" s="7" t="s">
+      <x:c r="A8" s="28" t="s"/>
+      <x:c r="B8" s="28" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="28" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1681,40 +1828,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="22" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="5" t="s">
+      <x:c r="A2" s="26" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="4" t="s">
+      <x:c r="A3" s="25" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="8" t="s">
+      <x:c r="A4" s="29" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="23" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="6" t="s">
+      <x:c r="A6" s="27" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="3" t="s"/>
+      <x:c r="A7" s="24" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="7" t="s"/>
+      <x:c r="A8" s="28" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1744,40 +1891,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="6" t="s">
+      <x:c r="A1" s="27" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="8" t="s">
+      <x:c r="A2" s="29" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="23" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="4" t="s">
+      <x:c r="A4" s="25" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="5" t="s">
+      <x:c r="A5" s="26" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="1" t="s">
+      <x:c r="A6" s="22" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="7" t="s"/>
+      <x:c r="A7" s="28" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3" t="s"/>
+      <x:c r="A8" s="24" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1807,82 +1954,82 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
+      <x:c r="A1" s="23" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="23" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="23" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
+      <x:c r="A2" s="24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="24" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="4" t="s">
+      <x:c r="A3" s="25" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B3" s="25" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="25" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C4" s="5" t="s"/>
+      <x:c r="A4" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="26" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C4" s="26" t="s"/>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
+      <x:c r="A5" s="22" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="22" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="22" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B6" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="6" t="s"/>
+      <x:c r="A6" s="27" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="27" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="27" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="8" t="s"/>
-      <x:c r="C7" s="8" t="s">
+      <x:c r="A7" s="29" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="29" t="s"/>
+      <x:c r="C7" s="29" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="7" t="s"/>
-      <x:c r="B8" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C8" s="7" t="s">
+      <x:c r="A8" s="28" t="s"/>
+      <x:c r="B8" s="28" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="28" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1914,82 +2061,82 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="6" t="s"/>
+      <x:c r="A1" s="27" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B1" s="27" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="27" t="s"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B2" s="8" t="s"/>
-      <x:c r="C2" s="8" t="s">
+      <x:c r="A2" s="29" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="29" t="s"/>
+      <x:c r="C2" s="29" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
+      <x:c r="A3" s="22" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="22" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C3" s="22" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="4" t="s">
+      <x:c r="A4" s="25" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="25" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="25" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
+      <x:c r="A5" s="24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="24" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="A6" s="23" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B6" s="23" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="23" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B7" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C7" s="5" t="s"/>
+      <x:c r="A7" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B7" s="26" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C7" s="26" t="s"/>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="7" t="s"/>
-      <x:c r="B8" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C8" s="7" t="s">
+      <x:c r="A8" s="28" t="s"/>
+      <x:c r="B8" s="28" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="28" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
@@ -148,7 +148,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="42">
+  <x:cellStyleXfs count="21">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -212,71 +212,8 @@
     <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="42">
+  <x:cellXfs count="21">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -359,90 +296,6 @@
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -750,93 +603,93 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="21" t="s">
+      <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="21" t="s">
+      <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="21" t="s">
+      <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="22" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="22" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="22" t="s">
+      <x:c r="A2" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="23" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="23" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C3" s="23" t="s">
+      <x:c r="A3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="24" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="24" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="24" t="s">
+      <x:c r="A4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="25" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="25" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="25" t="s">
+      <x:c r="A5" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="26" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="26" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="26" t="s"/>
+      <x:c r="A6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="27" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="27" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C7" s="27" t="s"/>
+      <x:c r="A7" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C7" s="6" t="s"/>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="28" t="s"/>
-      <x:c r="B8" s="28" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C8" s="28" t="s">
+      <x:c r="A8" s="7" t="s"/>
+      <x:c r="B8" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
-      <x:c r="A9" s="29" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B9" s="29" t="s"/>
-      <x:c r="C9" s="29" t="s">
+      <x:c r="A9" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B9" s="8" t="s"/>
+      <x:c r="C9" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -868,82 +721,82 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="27" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B1" s="27" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="27" t="s"/>
+      <x:c r="A1" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="6" t="s"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="24" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="24" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="24" t="s">
+      <x:c r="A2" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="23" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="23" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C3" s="23" t="s">
+      <x:c r="A3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="25" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="25" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="25" t="s">
+      <x:c r="A4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="26" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="26" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C5" s="26" t="s"/>
+      <x:c r="A5" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s"/>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="28" t="s"/>
-      <x:c r="B6" s="28" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="28" t="s">
+      <x:c r="A6" s="7" t="s"/>
+      <x:c r="B6" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="22" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B7" s="22" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C7" s="22" t="s">
+      <x:c r="A7" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="29" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B8" s="29" t="s"/>
-      <x:c r="C8" s="29" t="s">
+      <x:c r="A8" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="8" t="s"/>
+      <x:c r="C8" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -975,40 +828,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="22" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="26" t="s">
+      <x:c r="A2" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="29" t="s">
+      <x:c r="A3" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="25" t="s">
+      <x:c r="A4" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="23" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="27" t="s">
+      <x:c r="A6" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="28" t="s"/>
+      <x:c r="A7" s="7" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="24" t="s"/>
+      <x:c r="A8" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1038,40 +891,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="27" t="s">
+      <x:c r="A1" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="29" t="s">
+      <x:c r="A2" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="25" t="s">
+      <x:c r="A3" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="23" t="s">
+      <x:c r="A4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="22" t="s">
+      <x:c r="A5" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="26" t="s">
+      <x:c r="A6" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="24" t="s"/>
+      <x:c r="A7" s="3" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="28" t="s"/>
+      <x:c r="A8" s="7" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1101,22 +954,22 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="29" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B1" s="29" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C1" s="29" t="s"/>
+      <x:c r="A1" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B1" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C1" s="8" t="s"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="26" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="26" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="26" t="s"/>
+      <x:c r="A2" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="5" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1149,64 +1002,64 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="25" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B1" s="27" t="s">
+      <x:c r="A1" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="26" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="26" t="s">
+      <x:c r="A2" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="A3" s="22" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="23" t="s">
+      <x:c r="A3" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="A4" s="24" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="24" t="s">
+      <x:c r="A4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
-      <x:c r="A5" s="23" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B5" s="28" t="s">
+      <x:c r="A5" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="7" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
-      <x:c r="A6" s="29" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B6" s="25" t="s">
+      <x:c r="A6" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
-      <x:c r="A7" s="27" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="22" t="s">
+      <x:c r="A7" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
-      <x:c r="A8" s="28" t="s"/>
-      <x:c r="B8" s="29" t="s"/>
+      <x:c r="A8" s="7" t="s"/>
+      <x:c r="B8" s="8" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1236,40 +1089,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="30" t="n">
+      <x:c r="A1" s="9" t="n">
         <x:v>0.378125</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="31" t="n">
+      <x:c r="A2" s="10" t="n">
         <x:v>1.05034722222222</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="26" t="n">
+      <x:c r="A3" s="5" t="n">
         <x:v>1.15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="32">
+      <x:c r="A4" s="11">
         <x:v>40573</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="33">
+      <x:c r="A5" s="12">
         <x:v>40648</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="25" t="n">
+      <x:c r="A6" s="4" t="n">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="24" t="s"/>
+      <x:c r="A7" s="3" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="28" t="s"/>
+      <x:c r="A8" s="7" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1299,40 +1152,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="26" t="n">
+      <x:c r="A1" s="5" t="n">
         <x:v>1.15</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="29" t="n">
+      <x:c r="A2" s="8" t="n">
         <x:v>1.3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="27" t="n">
+      <x:c r="A3" s="6" t="n">
         <x:v>4.15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="23" t="n">
+      <x:c r="A4" s="2" t="n">
         <x:v>4.3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="25" t="n">
+      <x:c r="A5" s="4" t="n">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="22" t="n">
+      <x:c r="A6" s="1" t="n">
         <x:v>1230</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="28" t="s"/>
+      <x:c r="A7" s="7" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="24" t="s"/>
+      <x:c r="A8" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1362,40 +1215,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="34" t="n">
+      <x:c r="A1" s="13" t="n">
         <x:v>0.00850694444444444</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="35" t="n">
+      <x:c r="A2" s="14" t="n">
         <x:v>0.0446180555555556</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="30" t="n">
+      <x:c r="A3" s="9" t="n">
         <x:v>0.0447916666666667</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="36" t="n">
+      <x:c r="A4" s="15" t="n">
         <x:v>0.524548611111111</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="31" t="n">
+      <x:c r="A5" s="10" t="n">
         <x:v>1.05034722222222</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="37" t="n">
+      <x:c r="A6" s="16" t="n">
         <x:v>1.87586805555556</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="24" t="s"/>
+      <x:c r="A7" s="3" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="28" t="s"/>
+      <x:c r="A8" s="7" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1425,40 +1278,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="38">
+      <x:c r="A1" s="17">
         <x:v>40558</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="32">
+      <x:c r="A2" s="11">
         <x:v>40573</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="33">
+      <x:c r="A3" s="12">
         <x:v>40648</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="39">
+      <x:c r="A4" s="18">
         <x:v>40663</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="40">
+      <x:c r="A5" s="19">
         <x:v>40892</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="41">
+      <x:c r="A6" s="20">
         <x:v>40907</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="28" t="s"/>
+      <x:c r="A7" s="7" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="24" t="s"/>
+      <x:c r="A8" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1488,82 +1341,82 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="28" t="s"/>
-      <x:c r="B1" s="28" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="28" t="s">
+      <x:c r="A1" s="7" t="s"/>
+      <x:c r="B1" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="22" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="22" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="22" t="s">
+      <x:c r="A2" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="23" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="23" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C3" s="23" t="s">
+      <x:c r="A3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="24" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="24" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="24" t="s">
+      <x:c r="A4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="25" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="25" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="25" t="s">
+      <x:c r="A5" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="26" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="26" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="26" t="s"/>
+      <x:c r="A6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="27" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="27" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C7" s="27" t="s"/>
+      <x:c r="A7" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C7" s="6" t="s"/>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="29" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B8" s="29" t="s"/>
-      <x:c r="C8" s="29" t="s">
+      <x:c r="A8" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="8" t="s"/>
+      <x:c r="C8" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1595,38 +1448,38 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="28" t="s"/>
+      <x:c r="A1" s="7" t="s"/>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="24" t="s"/>
+      <x:c r="A2" s="3" t="s"/>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="22" t="s">
+      <x:c r="A3" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="26" t="s">
+      <x:c r="A4" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="25" t="s">
+      <x:c r="A5" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="29" t="s">
+      <x:c r="A6" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="23" t="s">
+      <x:c r="A7" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="27" t="s">
+      <x:c r="A8" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -1658,40 +1511,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="27" t="s">
+      <x:c r="A1" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="29" t="s">
+      <x:c r="A2" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="23" t="s">
+      <x:c r="A3" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="25" t="s">
+      <x:c r="A4" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="26" t="s">
+      <x:c r="A5" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="22" t="s">
+      <x:c r="A6" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="28" t="s"/>
+      <x:c r="A7" s="7" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="24" t="s"/>
+      <x:c r="A8" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1721,82 +1574,82 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="22" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B1" s="22" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C1" s="22" t="s">
+      <x:c r="A1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="23" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="23" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="23" t="s">
+      <x:c r="A2" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="25" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="25" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="25" t="s">
+      <x:c r="A3" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B3" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="24" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="24" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="24" t="s">
+      <x:c r="A4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="26" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="26" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C5" s="26" t="s"/>
+      <x:c r="A5" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s"/>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="27" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B6" s="27" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="27" t="s"/>
+      <x:c r="A6" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="6" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="29" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="29" t="s"/>
-      <x:c r="C7" s="29" t="s">
+      <x:c r="A7" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="8" t="s"/>
+      <x:c r="C7" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="28" t="s"/>
-      <x:c r="B8" s="28" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C8" s="28" t="s">
+      <x:c r="A8" s="7" t="s"/>
+      <x:c r="B8" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1828,40 +1681,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="22" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="26" t="s">
+      <x:c r="A2" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="25" t="s">
+      <x:c r="A3" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="29" t="s">
+      <x:c r="A4" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="23" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="27" t="s">
+      <x:c r="A6" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="24" t="s"/>
+      <x:c r="A7" s="3" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="28" t="s"/>
+      <x:c r="A8" s="7" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1891,40 +1744,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="27" t="s">
+      <x:c r="A1" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="29" t="s">
+      <x:c r="A2" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="23" t="s">
+      <x:c r="A3" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="25" t="s">
+      <x:c r="A4" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="26" t="s">
+      <x:c r="A5" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="22" t="s">
+      <x:c r="A6" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="28" t="s"/>
+      <x:c r="A7" s="7" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="24" t="s"/>
+      <x:c r="A8" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1954,82 +1807,82 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="23" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B1" s="23" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="23" t="s">
+      <x:c r="A1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="24" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="24" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="24" t="s">
+      <x:c r="A2" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="25" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="25" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="25" t="s">
+      <x:c r="A3" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B3" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="26" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="26" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C4" s="26" t="s"/>
+      <x:c r="A4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C4" s="5" t="s"/>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="22" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B5" s="22" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="22" t="s">
+      <x:c r="A5" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="27" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B6" s="27" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="27" t="s"/>
+      <x:c r="A6" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="6" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="29" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="29" t="s"/>
-      <x:c r="C7" s="29" t="s">
+      <x:c r="A7" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="8" t="s"/>
+      <x:c r="C7" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="28" t="s"/>
-      <x:c r="B8" s="28" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C8" s="28" t="s">
+      <x:c r="A8" s="7" t="s"/>
+      <x:c r="B8" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -2061,82 +1914,82 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="27" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B1" s="27" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="27" t="s"/>
+      <x:c r="A1" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="6" t="s"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="29" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B2" s="29" t="s"/>
-      <x:c r="C2" s="29" t="s">
+      <x:c r="A2" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="8" t="s"/>
+      <x:c r="C2" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="22" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="22" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C3" s="22" t="s">
+      <x:c r="A3" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="25" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="25" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="25" t="s">
+      <x:c r="A4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="24" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="24" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="24" t="s">
+      <x:c r="A5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="23" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B6" s="23" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="23" t="s">
+      <x:c r="A6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="26" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B7" s="26" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C7" s="26" t="s"/>
+      <x:c r="A7" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B7" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C7" s="5" t="s"/>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="28" t="s"/>
-      <x:c r="B8" s="28" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C8" s="28" t="s">
+      <x:c r="A8" s="7" t="s"/>
+      <x:c r="B8" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
@@ -697,14 +697,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -804,14 +797,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -867,14 +853,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -930,14 +909,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -975,14 +947,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1065,14 +1030,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1128,14 +1086,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1191,14 +1142,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1254,14 +1198,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1317,14 +1254,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1424,14 +1354,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1487,14 +1410,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1550,14 +1466,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1657,14 +1566,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1720,14 +1622,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1783,14 +1678,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1890,14 +1778,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1997,14 +1878,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
@@ -64,7 +64,14 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
@@ -602,7 +602,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:C9"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
@@ -716,7 +716,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:C8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -816,7 +816,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -872,7 +872,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -928,7 +928,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:C8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -966,7 +966,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:C8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
@@ -1049,7 +1049,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -1105,7 +1105,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -1161,7 +1161,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -1217,7 +1217,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -1273,7 +1273,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:C8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -1373,7 +1373,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -1429,7 +1429,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -1485,7 +1485,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:C8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -1585,7 +1585,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -1641,7 +1641,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -1697,7 +1697,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:C8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -1797,7 +1797,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:C8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
@@ -89,8 +89,38 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFDEB887"/>
-        <x:bgColor rgb="FFDEB887"/>
+        <x:fgColor rgb="FF90EE90"/>
+        <x:bgColor rgb="FF90EE90"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFE9967A"/>
+        <x:bgColor rgb="FFE9967A"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFF1493"/>
+        <x:bgColor rgb="FFFF1493"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FF00CED1"/>
+        <x:bgColor rgb="FF00CED1"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FF1E90FF"/>
+        <x:bgColor rgb="FF1E90FF"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFA9A9A9"/>
+        <x:bgColor rgb="FFA9A9A9"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
@@ -101,38 +131,8 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFA9A9A9"/>
-        <x:bgColor rgb="FFA9A9A9"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF1E90FF"/>
-        <x:bgColor rgb="FF1E90FF"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF00CED1"/>
-        <x:bgColor rgb="FF00CED1"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF1493"/>
-        <x:bgColor rgb="FFFF1493"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFE9967A"/>
-        <x:bgColor rgb="FFE9967A"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF90EE90"/>
-        <x:bgColor rgb="FF90EE90"/>
+        <x:fgColor rgb="FFDEB887"/>
+        <x:bgColor rgb="FFDEB887"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -183,40 +183,40 @@
     <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="46" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="46" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -257,7 +257,27 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="46" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -265,43 +285,23 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -621,82 +621,82 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
+      <x:c r="A2" s="8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="A3" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s">
+      <x:c r="A4" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="4" t="s">
+      <x:c r="A5" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s"/>
+      <x:c r="A6" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="4" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C7" s="6" t="s"/>
+      <x:c r="A7" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s"/>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="7" t="s"/>
-      <x:c r="B8" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C8" s="7" t="s">
+      <x:c r="A8" s="2" t="s"/>
+      <x:c r="B8" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
-      <x:c r="A9" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B9" s="8" t="s"/>
-      <x:c r="C9" s="8" t="s">
+      <x:c r="A9" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s"/>
+      <x:c r="C9" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -721,82 +721,82 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="6" t="s"/>
+      <x:c r="A1" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
+      <x:c r="A2" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="A3" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="4" t="s">
+      <x:c r="A4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s"/>
+      <x:c r="A5" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s"/>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="7" t="s"/>
-      <x:c r="B6" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="7" t="s">
+      <x:c r="A6" s="2" t="s"/>
+      <x:c r="B6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
+      <x:c r="A7" s="8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B7" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B8" s="8" t="s"/>
-      <x:c r="C8" s="8" t="s">
+      <x:c r="A8" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s"/>
+      <x:c r="C8" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -821,40 +821,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="8" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="5" t="s">
+      <x:c r="A2" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="8" t="s">
+      <x:c r="A3" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="4" t="s">
+      <x:c r="A4" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="6" t="s">
+      <x:c r="A6" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="7" t="s"/>
+      <x:c r="A7" s="2" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3" t="s"/>
+      <x:c r="A8" s="6" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -877,40 +877,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="6" t="s">
+      <x:c r="A1" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="8" t="s">
+      <x:c r="A2" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="4" t="s">
+      <x:c r="A3" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="A4" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="1" t="s">
+      <x:c r="A5" s="8" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="5" t="s">
+      <x:c r="A6" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="3" t="s"/>
+      <x:c r="A7" s="6" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="7" t="s"/>
+      <x:c r="A8" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -933,22 +933,22 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B1" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C1" s="8" t="s"/>
+      <x:c r="A1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="5" t="s"/>
+      <x:c r="A2" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="4" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -974,64 +974,64 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
+      <x:c r="A1" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="5" t="s">
+      <x:c r="A2" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="A3" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
+      <x:c r="A3" s="8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="7" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="A4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
+      <x:c r="A4" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
-      <x:c r="A5" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B5" s="7" t="s">
+      <x:c r="A5" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
-      <x:c r="A6" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B6" s="4" t="s">
+      <x:c r="A6" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
-      <x:c r="A7" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
+      <x:c r="A7" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
-      <x:c r="A8" s="7" t="s"/>
-      <x:c r="B8" s="8" t="s"/>
+      <x:c r="A8" s="2" t="s"/>
+      <x:c r="B8" s="1" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1064,7 +1064,7 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="5" t="n">
+      <x:c r="A3" s="4" t="n">
         <x:v>1.15</x:v>
       </x:c>
     </x:row>
@@ -1079,15 +1079,15 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="4" t="n">
+      <x:c r="A6" s="5" t="n">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="3" t="s"/>
+      <x:c r="A7" s="6" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="7" t="s"/>
+      <x:c r="A8" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1110,40 +1110,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="5" t="n">
+      <x:c r="A1" s="4" t="n">
         <x:v>1.15</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="8" t="n">
+      <x:c r="A2" s="1" t="n">
         <x:v>1.3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="6" t="n">
+      <x:c r="A3" s="3" t="n">
         <x:v>4.15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="2" t="n">
+      <x:c r="A4" s="7" t="n">
         <x:v>4.3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="4" t="n">
+      <x:c r="A5" s="5" t="n">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="1" t="n">
+      <x:c r="A6" s="8" t="n">
         <x:v>1230</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="7" t="s"/>
+      <x:c r="A7" s="2" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3" t="s"/>
+      <x:c r="A8" s="6" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1196,10 +1196,10 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="3" t="s"/>
+      <x:c r="A7" s="6" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="7" t="s"/>
+      <x:c r="A8" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1252,10 +1252,10 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="7" t="s"/>
+      <x:c r="A7" s="2" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3" t="s"/>
+      <x:c r="A8" s="6" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1278,82 +1278,82 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="7" t="s"/>
-      <x:c r="B1" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="7" t="s">
+      <x:c r="A1" s="2" t="s"/>
+      <x:c r="B1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
+      <x:c r="A2" s="8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="A3" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s">
+      <x:c r="A4" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="4" t="s">
+      <x:c r="A5" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s"/>
+      <x:c r="A6" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="4" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C7" s="6" t="s"/>
+      <x:c r="A7" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s"/>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B8" s="8" t="s"/>
-      <x:c r="C8" s="8" t="s">
+      <x:c r="A8" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s"/>
+      <x:c r="C8" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1378,38 +1378,38 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="7" t="s"/>
+      <x:c r="A1" s="2" t="s"/>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="3" t="s"/>
+      <x:c r="A2" s="6" t="s"/>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="1" t="s">
+      <x:c r="A3" s="8" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="5" t="s">
+      <x:c r="A4" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="4" t="s">
+      <x:c r="A5" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="8" t="s">
+      <x:c r="A6" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="A7" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="6" t="s">
+      <x:c r="A8" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -1434,40 +1434,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="6" t="s">
+      <x:c r="A1" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="8" t="s">
+      <x:c r="A2" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="4" t="s">
+      <x:c r="A4" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="5" t="s">
+      <x:c r="A5" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="1" t="s">
+      <x:c r="A6" s="8" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="7" t="s"/>
+      <x:c r="A7" s="2" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3" t="s"/>
+      <x:c r="A8" s="6" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1490,82 +1490,82 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="A1" s="8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C1" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
+      <x:c r="A2" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="4" t="s">
+      <x:c r="A3" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B3" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s">
+      <x:c r="A4" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s"/>
+      <x:c r="A5" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s"/>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B6" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="6" t="s"/>
+      <x:c r="A6" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="8" t="s"/>
-      <x:c r="C7" s="8" t="s">
+      <x:c r="A7" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s"/>
+      <x:c r="C7" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="7" t="s"/>
-      <x:c r="B8" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C8" s="7" t="s">
+      <x:c r="A8" s="2" t="s"/>
+      <x:c r="B8" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1590,40 +1590,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="8" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="5" t="s">
+      <x:c r="A2" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="4" t="s">
+      <x:c r="A3" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="8" t="s">
+      <x:c r="A4" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="6" t="s">
+      <x:c r="A6" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="3" t="s"/>
+      <x:c r="A7" s="6" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="7" t="s"/>
+      <x:c r="A8" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1646,40 +1646,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="6" t="s">
+      <x:c r="A1" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="8" t="s">
+      <x:c r="A2" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="4" t="s">
+      <x:c r="A4" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="5" t="s">
+      <x:c r="A5" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="1" t="s">
+      <x:c r="A6" s="8" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="7" t="s"/>
+      <x:c r="A7" s="2" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3" t="s"/>
+      <x:c r="A8" s="6" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1702,82 +1702,82 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
+      <x:c r="A1" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
+      <x:c r="A2" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="4" t="s">
+      <x:c r="A3" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B3" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C4" s="5" t="s"/>
+      <x:c r="A4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s"/>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
+      <x:c r="A5" s="8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B6" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="6" t="s"/>
+      <x:c r="A6" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="8" t="s"/>
-      <x:c r="C7" s="8" t="s">
+      <x:c r="A7" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s"/>
+      <x:c r="C7" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="7" t="s"/>
-      <x:c r="B8" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C8" s="7" t="s">
+      <x:c r="A8" s="2" t="s"/>
+      <x:c r="B8" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1802,82 +1802,82 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="6" t="s"/>
+      <x:c r="A1" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B2" s="8" t="s"/>
-      <x:c r="C2" s="8" t="s">
+      <x:c r="A2" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s"/>
+      <x:c r="C2" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
+      <x:c r="A3" s="8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C3" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="4" t="s">
+      <x:c r="A4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
+      <x:c r="A5" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="A6" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B6" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B7" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C7" s="5" t="s"/>
+      <x:c r="A7" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B7" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C7" s="4" t="s"/>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="7" t="s"/>
-      <x:c r="B8" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C8" s="7" t="s">
+      <x:c r="A8" s="2" t="s"/>
+      <x:c r="B8" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/Sorting.xlsx
@@ -156,152 +156,152 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="21">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="8" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="9" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="6" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="5" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="8" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="6" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="9" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="21">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
